--- a/data.xlsx
+++ b/data.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Git\Python\YarnLengthCalculation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E24C9-2EFF-4E60-B091-702B3DC44992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+  <si>
+    <t>İplik Numarası</t>
+  </si>
+  <si>
+    <t>1 gram İpin metrajı (m)</t>
+  </si>
+  <si>
+    <t>Toplam Bobin Sayısı</t>
+  </si>
+  <si>
+    <t>Tel Sayısı</t>
+  </si>
+  <si>
+    <t>Ort. Bobin Ağırlığı(kg)</t>
+  </si>
+  <si>
+    <t>Band Sayısı</t>
+  </si>
+  <si>
+    <t>Bobin Sayısı</t>
+  </si>
+  <si>
+    <t>Artan Bobin</t>
+  </si>
+  <si>
+    <t>Max Uzunluk</t>
+  </si>
+  <si>
+    <t>Yeni İplik Numarası</t>
+  </si>
+  <si>
+    <t>150DN</t>
+  </si>
+  <si>
+    <t>155.17DN</t>
+  </si>
+  <si>
+    <t>300DN</t>
+  </si>
+  <si>
+    <t>333.33DN</t>
+  </si>
+  <si>
+    <t>152.54DN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,481 +427,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>İplik Numarası</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1 gram İpin metrajı (m)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Toplam Bobin Sayısı</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tel Sayısı</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ort. Bobin Ağırlığı(kg)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Band Sayısı</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bobin Sayısı</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Artan Bobin</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Max Uzunluk</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Yeni İplik Numarası</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>58</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7040</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>587</v>
       </c>
-      <c r="H2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
         <v>19344.31818181818</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>58</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>600</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7040</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>587</v>
       </c>
-      <c r="H3" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>19344.31818181818</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>58</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>600</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7040</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>587</v>
       </c>
-      <c r="H4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
         <v>19344.31818181818</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>58</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>600</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>7040</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>587</v>
       </c>
-      <c r="H5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24180.39772727273</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>24180.397727272732</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>58</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>350</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7040</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>336</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>13840.90909090909</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>58</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>600</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7040</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>587</v>
       </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>19344.31818181818</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>155.17DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>300DN</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>250</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>7900</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>247</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>2110.443037974684</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>333.33DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>300DN</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="I8">
+        <v>2110.4430379746841</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>250</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>7900</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>32</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>247</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3376.708860759494</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>333.33DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>300DN</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="I9">
+        <v>3376.7088607594942</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>440</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5644</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.85</v>
       </c>
-      <c r="F10" t="n">
-        <v>13</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>435</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
-        <v>3849.796243798725</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>333.33DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="I10">
+        <v>3849.7962437987248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>59</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>540</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>7040</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.98</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>503</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>37</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>8178.036931818182</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>152.54DN</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>150DN</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7040</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>336.0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2525.7272727272725</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>333.33DN</t>
-        </is>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7040</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>336</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2525.7272727272698</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ort. Bobin Ağırlığı(kg)</t>
+          <t>Ort. Bobin Ağırlığı(g)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -495,25 +495,25 @@
         <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D2" t="n">
-        <v>7040</v>
+        <v>8900</v>
       </c>
       <c r="E2" t="n">
-        <v>2100</v>
+        <v>2492</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4350.579545454545</v>
+        <v>2345</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -531,25 +531,25 @@
         <v>59</v>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D3" t="n">
-        <v>7040</v>
+        <v>5270</v>
       </c>
       <c r="E3" t="n">
-        <v>2100</v>
+        <v>1587</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4350.579545454545</v>
+        <v>1334</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -567,25 +567,25 @@
         <v>59</v>
       </c>
       <c r="C4" t="n">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D4" t="n">
-        <v>7040</v>
+        <v>8752</v>
       </c>
       <c r="E4" t="n">
-        <v>2100</v>
+        <v>4831</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>252</v>
+        <v>552</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4350.579545454545</v>
+        <v>11911</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -600,32 +600,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D5" t="n">
-        <v>7040</v>
+        <v>1906</v>
       </c>
       <c r="E5" t="n">
-        <v>2100</v>
+        <v>3375</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>252</v>
+        <v>550</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2212.159090909091</v>
+        <v>5905</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>300.00DN</t>
+          <t>152.54DN</t>
         </is>
       </c>
     </row>
@@ -636,32 +636,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D6" t="n">
-        <v>7040</v>
+        <v>2762</v>
       </c>
       <c r="E6" t="n">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2212.159090909091</v>
+        <v>18593</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>300.00DN</t>
+          <t>152.54DN</t>
         </is>
       </c>
     </row>
@@ -672,32 +672,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="D7" t="n">
-        <v>7040</v>
+        <v>4928</v>
       </c>
       <c r="E7" t="n">
-        <v>2100</v>
+        <v>1960</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3441.136363636364</v>
+        <v>10644</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>300.00DN</t>
+          <t>152.54DN</t>
         </is>
       </c>
     </row>
@@ -708,32 +708,32 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="D8" t="n">
-        <v>7040</v>
+        <v>5915</v>
       </c>
       <c r="E8" t="n">
-        <v>2100</v>
+        <v>1219</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>2212.159090909091</v>
+        <v>6807</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>300.00DN</t>
+          <t>152.54DN</t>
         </is>
       </c>
     </row>
@@ -744,32 +744,176 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="D9" t="n">
+        <v>7251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>766</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>480</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11098</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>152.54DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>640</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3454</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>403</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5497</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>152.54DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>640</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7344</v>
+      </c>
+      <c r="E11" t="n">
+        <v>923</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>311</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18567</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>152.54DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>640</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8634</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4883</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>343</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7297</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>152.54DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59</v>
+      </c>
+      <c r="C13" t="n">
+        <v>350</v>
+      </c>
+      <c r="D13" t="n">
         <v>7040</v>
       </c>
-      <c r="E9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>36</v>
-      </c>
-      <c r="G9" t="n">
-        <v>196</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1720.568181818182</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>300.00DN</t>
+      <c r="E13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>336</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10024.63636363636</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>152.54DN</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Git\Python\YarnLengthCalculation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE166389-FE5C-4817-B046-36B5ED4E444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>İplik Numarası</t>
-  </si>
-  <si>
-    <t>Renk Kodu</t>
-  </si>
-  <si>
-    <t>Lot Numarası</t>
-  </si>
-  <si>
-    <t>1 gram İpin metrajı (m)</t>
-  </si>
-  <si>
-    <t>Toplam Bobin Sayısı</t>
-  </si>
-  <si>
-    <t>Tel Sayısı</t>
-  </si>
-  <si>
-    <t>Ort. Bobin Ağırlığı(g)</t>
-  </si>
-  <si>
-    <t>Yaklaşık Bobin Başı Fire (g)</t>
-  </si>
-  <si>
-    <t>Band Sayısı</t>
-  </si>
-  <si>
-    <t>Bobin Sayısı</t>
-  </si>
-  <si>
-    <t>Artan Bobin</t>
-  </si>
-  <si>
-    <t>Toplam Fire (g)</t>
-  </si>
-  <si>
-    <t>Max Uzunluk</t>
-  </si>
-  <si>
-    <t>Yeni İplik Numarası</t>
-  </si>
-  <si>
-    <t>300DN</t>
-  </si>
-  <si>
-    <t>cNATURAL</t>
-  </si>
-  <si>
-    <t>L1234</t>
-  </si>
-  <si>
-    <t>310.34DN</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,117 +420,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>İplik Numarası</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Renk Kodu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lot Numarası</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1 gram İpin metrajı (m)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Toplam Bobin Sayısı</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tel Sayısı</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ort. Bobin Ağırlığı(g)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Yaklaşık Bobin Başı Fire (g)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Band Sayısı</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Bobin Sayısı</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Artan Bobin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Toplam Fire (g)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Max Uzunluk</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Yeni İplik Numarası</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>300DN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c110881</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>L128608</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5644</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1899</v>
+      </c>
+      <c r="H2" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>435</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" t="n">
+        <v>17313</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3940.588235294118</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>327.27DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>300DN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7040</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>470</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L3" t="n">
+        <v>123800</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6698.835227272727</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>310.34DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c150407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>L130354</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>503</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1904</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>503</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25150</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6995.453133297929</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>159.29DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c150407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>L128619</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>503</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>53</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>503</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7411.369755708975</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>157.89DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>150DN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c150407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>L128624</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>503</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>503</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27665</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7124.275092936803</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>160.71DN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>167DTEX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cNATURAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>L61530</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>640</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5772</v>
+      </c>
+      <c r="H7" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>628</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>111302.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>28064.77471056824</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>169.49DTEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>167DTEX</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cNATURAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>L61530</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>640</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5710</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>628</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>110558.32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>27759.77949017525</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>169.49DTEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>167DTEX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cNATURAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>L61530</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>640</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5710</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>628</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>110558.32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>26818.77001593203</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>175.44DTEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>167DTEX</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cNATURAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>L61530</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>58</v>
+      </c>
+      <c r="E10" t="n">
+        <v>640</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7532</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5710</v>
+      </c>
+      <c r="H10" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>628</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>110558.32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>27289.27475305364</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>172.41DTEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>167DTEX</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cNATURAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LSF61530</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>640</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7040</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5710</v>
+      </c>
+      <c r="H11" t="n">
+        <v>69</v>
+      </c>
+      <c r="I11" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>452</v>
-      </c>
-      <c r="F2">
-        <v>7040</v>
-      </c>
-      <c r="G2">
-        <v>2560</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>440</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>48320</v>
-      </c>
-      <c r="M2">
-        <v>4567.5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
+      <c r="J11" t="n">
+        <v>640</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44160</v>
+      </c>
+      <c r="M11" t="n">
+        <v>29743.45454545454</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>172.41DTEX</t>
+        </is>
       </c>
     </row>
   </sheetData>
